--- a/biology/Botanique/Brighamia_insignis/Brighamia_insignis.xlsx
+++ b/biology/Botanique/Brighamia_insignis/Brighamia_insignis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Palmier de Hawaii ou Palmier hawaiien (Brighamia insignis) est une espèce de plante herbacée. Malgré sa forme et son nom, ce n'est pas un palmier, il appartient à la famille des campanulacées et endémique de Kauai dans l'archipel d'Hawaii. Le Palmier de Hawaii est considéré comme une espèce en danger de disparition.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante doit son nom au botaniste, géologue et ethnologue américain William Tufts Brigham.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Brighamia insignis est une plante ramifiée avec une tige succulente qui est bulbeux à la base et se rétrécit vers le haut, se terminant en une rosette compacte de feuilles.
 Les feuilles sont simples, ovoïdes, très légèrement dentées, charnues, de couleur vert clair; la longueur varie de 12 à 30 cm et la largeur de 6 à 12 cm.
@@ -576,7 +592,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La pollinisation naturelle n'est possible que par des papillons ayant un proboscis adapté et suffisamment long (environ 13 cm). Or ces insectes semblent éteints sur Hawaï condamnant ainsi l'espèce et nécessitant la pollinisation manuelle.
 </t>
@@ -607,7 +625,9 @@
           <t>Répartition géographique et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est originaire des îles de Kauai et Niihau à Hawaï. Brighamia insignis vit à partir de 480 m d'altitude dans les savanes mésiques et dans les forêts sèches qui reçoivent moins de 170 cm de précipitations annuelles. Il pousse sur des corniches rocheuses avec peu de terre et les falaises escarpées de la mer.
 </t>
@@ -638,7 +658,9 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vivace est un membre d'un genre endémique d'Hawaï avec une seule autre espèce. Il est maintenant extrêmement rare dans son milieu naturel. En 1994, le United States Fish and Wildlife Service a signalé cinq populations d'un total de 45 à 65 spécimens.
 La disparition de son seul pollinisateur, un papillon sphingidé, a rendu presque impossible la reproduction du palmier de Hawaii, le vouant à une disparition probable. Toutefois, il est facilement disponible dans le commerce, à un prix abordable, grâce à la pollinisation artificielle; la rareté et l'originalité comme arguments de vente.
@@ -670,11 +692,48 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Arrosage faible, vaporisation des feuilles, endroits lumineux sans exposition directe au soleil.
-Parasites
-Les tétranyques ou « araignées rouges » apprécient les feuilles tendres et vertes de Brighamia insignis, leurs morsures incessantes épuisent les feuilles les rendant rapidement jaunes. Il n'est pas nécessaire de traiter le plant malade, il suffit de nettoyer régulièrement les feuilles avec de l'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Brighamia_insignis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brighamia_insignis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Parasites</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tétranyques ou « araignées rouges » apprécient les feuilles tendres et vertes de Brighamia insignis, leurs morsures incessantes épuisent les feuilles les rendant rapidement jaunes. Il n'est pas nécessaire de traiter le plant malade, il suffit de nettoyer régulièrement les feuilles avec de l'eau.
 </t>
         </is>
       </c>
